--- a/TBMA.xlsx
+++ b/TBMA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\UDESC\ThermoPhase - 2024\Testes de Consistência\consistency_tests_2024-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{301A3C5E-CDE2-424B-9B7D-DD747ED55DB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621DF6F2-D5C3-434E-8942-3D8D27DA8833}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11205" yWindow="1500" windowWidth="8760" windowHeight="8715" firstSheet="1" activeTab="1" xr2:uid="{0DC7EE4D-B8B4-49F1-817F-608EF44E7547}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="10245" windowHeight="8715" firstSheet="1" activeTab="1" xr2:uid="{0DC7EE4D-B8B4-49F1-817F-608EF44E7547}"/>
   </bookViews>
   <sheets>
     <sheet name="tbmaof_5_altamash" sheetId="1" r:id="rId1"/>
@@ -173,12 +173,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -190,7 +184,13 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,7 +508,7 @@
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,268 +576,228 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="3">
         <v>3.9409999999999998</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="4">
         <v>277.09100000000001</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3">
         <v>38.46</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="3">
         <v>3.8460000000000001</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="5">
         <v>3846000</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="4">
         <v>276.97408411731061</v>
       </c>
-      <c r="I2" s="8">
-        <f t="shared" ref="I2:I6" si="0">F2-10^(-4646.471 +5314653/H2 -2271392000/H2^2 +430306500000/H2^3 -30511740000000/H2^4)</f>
+      <c r="I2" s="6">
         <v>-3.5274005938390474E-11</v>
       </c>
-      <c r="J2" s="8">
-        <f>H2-D2</f>
+      <c r="J2" s="6">
         <v>-0.11691588268939768</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K6" si="1">(H2-D2)/(H2*D2)</f>
         <v>-1.5233930077958512E-6</v>
       </c>
       <c r="L2">
-        <f>_xlfn.STDEV.S(K2:K6)</f>
         <v>1.46016201386834E-6</v>
       </c>
       <c r="M2">
-        <f>AVERAGE(K2:K6)</f>
         <v>-1.0878815605861165E-9</v>
       </c>
       <c r="N2">
-        <f>100*ABS(L2/M2)</f>
         <v>134220.67868138608</v>
       </c>
-      <c r="O2" s="9">
-        <f t="shared" ref="O2:O6" si="2">LN(F2)</f>
+      <c r="O2" s="7">
         <v>1.347033647166588</v>
       </c>
-      <c r="P2" s="9">
-        <f t="shared" ref="P2:P6" si="3">1/D2</f>
+      <c r="P2" s="7">
         <v>3.6089227004846782E-3</v>
       </c>
-      <c r="Q2" s="9">
-        <f t="shared" ref="Q2:Q6" si="4">1/H2</f>
+      <c r="Q2" s="7">
         <v>3.610446093492474E-3</v>
       </c>
       <c r="R2">
-        <f>SLOPE(O2:O6,P2:P6)</f>
         <v>-8723.7475830174717</v>
       </c>
       <c r="S2">
-        <f>SLOPE(O2:O6,Q2:Q6)</f>
         <v>-8502.0198978554126</v>
       </c>
       <c r="T2">
-        <f t="shared" ref="T2" si="5">100*ABS(S2-R2)/ABS(S2)</f>
         <v>2.6079412636753374</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="5">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="3">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="5">
         <v>281.45</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>59.8</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="5">
         <v>5.98</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="5">
         <v>5980000</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="5">
         <v>281.35923497096707</v>
       </c>
-      <c r="I3" s="8">
-        <f t="shared" si="0"/>
+      <c r="I3" s="6">
         <v>-1.6981971384666394E-11</v>
       </c>
-      <c r="J3" s="8">
-        <f t="shared" ref="J3:J6" si="6">H3-D3</f>
+      <c r="J3" s="6">
         <v>-9.0765029032922939E-2</v>
       </c>
       <c r="K3">
-        <f t="shared" si="1"/>
         <v>-1.1461887024503763E-6</v>
       </c>
-      <c r="O3" s="9">
-        <f t="shared" si="2"/>
+      <c r="O3" s="7">
         <v>1.7884205679625405</v>
       </c>
-      <c r="P3" s="9">
-        <f t="shared" si="3"/>
+      <c r="P3" s="7">
         <v>3.5530289571860012E-3</v>
       </c>
-      <c r="Q3" s="9">
-        <f t="shared" si="4"/>
+      <c r="Q3" s="7">
         <v>3.5541751458884516E-3</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="5">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="3">
         <v>10.51</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <v>283.66000000000003</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>76.430000000000007</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>7.6429999999999998</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="5">
         <v>7643000</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="5">
         <v>283.62879094180312</v>
       </c>
-      <c r="I4" s="8">
-        <f t="shared" si="0"/>
+      <c r="I4" s="6">
         <v>-6.4231286955873657E-11</v>
       </c>
-      <c r="J4" s="8">
-        <f t="shared" si="6"/>
+      <c r="J4" s="6">
         <v>-3.1209058196907336E-2</v>
       </c>
       <c r="K4">
-        <f t="shared" si="1"/>
         <v>-3.8791113913841401E-7</v>
       </c>
-      <c r="O4" s="9">
-        <f t="shared" si="2"/>
+      <c r="O4" s="7">
         <v>2.033790196260747</v>
       </c>
-      <c r="P4" s="9">
-        <f t="shared" si="3"/>
+      <c r="P4" s="7">
         <v>3.5253472467038E-3</v>
       </c>
-      <c r="Q4" s="9">
-        <f t="shared" si="4"/>
+      <c r="Q4" s="7">
         <v>3.5257351578429383E-3</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="5">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="3">
         <v>12.32</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="5">
         <v>285.47000000000003</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>95.62</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>9.5619999999999994</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="5">
         <v>9562000</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="5">
         <v>285.61131299405315</v>
       </c>
-      <c r="I5" s="8">
-        <f t="shared" si="0"/>
+      <c r="I5" s="6">
         <v>3.3235636465178686E-12</v>
       </c>
-      <c r="J5" s="8">
-        <f t="shared" si="6"/>
+      <c r="J5" s="6">
         <v>0.14131299405312348</v>
       </c>
       <c r="K5">
-        <f t="shared" si="1"/>
         <v>1.7331901702437224E-6</v>
       </c>
-      <c r="O5" s="9">
-        <f t="shared" si="2"/>
+      <c r="O5" s="7">
         <v>2.2577969102039117</v>
       </c>
-      <c r="P5" s="9">
-        <f t="shared" si="3"/>
+      <c r="P5" s="7">
         <v>3.5029950607769638E-3</v>
       </c>
-      <c r="Q5" s="9">
-        <f t="shared" si="4"/>
+      <c r="Q5" s="7">
         <v>3.5012618706067203E-3</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="5">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="3">
         <v>13.93</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>287.08</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>114.96</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>11.496</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="5">
         <v>11496000</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="5">
         <v>287.1887351886765</v>
       </c>
-      <c r="I6" s="8">
-        <f t="shared" si="0"/>
+      <c r="I6" s="6">
         <v>-6.4300564872610266E-11</v>
       </c>
-      <c r="J6" s="8">
-        <f t="shared" si="6"/>
+      <c r="J6" s="6">
         <v>0.1087351886765191</v>
       </c>
       <c r="K6">
-        <f t="shared" si="1"/>
         <v>1.3188632713379886E-6</v>
       </c>
-      <c r="O6" s="9">
-        <f t="shared" si="2"/>
+      <c r="O6" s="7">
         <v>2.4419991487767239</v>
       </c>
-      <c r="P6" s="9">
-        <f t="shared" si="3"/>
+      <c r="P6" s="7">
         <v>3.4833495889647487E-3</v>
       </c>
-      <c r="Q6" s="9">
-        <f t="shared" si="4"/>
+      <c r="Q6" s="7">
         <v>3.4820307256934109E-3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -847,7 +807,7 @@
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,222 +875,188 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="3">
         <v>4.54</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="5">
         <v>277.69</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3">
         <v>42.411999999999999</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="3">
         <v>4.24</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="5">
         <v>4241200</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="5">
         <v>277.97740727874003</v>
       </c>
-      <c r="I2" s="8">
-        <f t="shared" ref="I2:I5" si="0">F2-10^(-4646.471 +5314653/H2 -2271392000/H2^2 +430306500000/H2^3 -30511740000000/H2^4)</f>
+      <c r="I2" s="6">
         <v>2.0955681634404755E-11</v>
       </c>
-      <c r="J2" s="8">
-        <f t="shared" ref="J2:J5" si="1">H2-D2</f>
+      <c r="J2" s="6">
         <v>0.28740727874003369</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K5" si="2">(H2-D2)/(H2*D2)</f>
         <v>3.7232999309791755E-6</v>
       </c>
       <c r="L2">
-        <f>_xlfn.STDEV.S(K2:K5)</f>
         <v>2.2069091113032218E-6</v>
       </c>
       <c r="M2">
-        <f t="shared" ref="M2" si="3">AVERAGE(K2:K5)</f>
         <v>6.8502282264069339E-6</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2" si="4">100*L2/M2</f>
         <v>32.216577876862722</v>
       </c>
-      <c r="O2" s="9">
-        <f t="shared" ref="O2:O5" si="5">LN(F2)</f>
+      <c r="O2" s="7">
         <v>1.4445632692438664</v>
       </c>
-      <c r="P2" s="9">
-        <f t="shared" ref="P2:P5" si="6">1/D2</f>
+      <c r="P2" s="7">
         <v>3.6011379595952322E-3</v>
       </c>
-      <c r="Q2" s="9">
-        <f t="shared" ref="Q2:Q5" si="7">1/H2</f>
+      <c r="Q2" s="7">
         <v>3.5974146596642531E-3</v>
       </c>
       <c r="R2">
-        <f>SLOPE(O2:O5,P2:P5)</f>
         <v>-9014.6654426144742</v>
       </c>
       <c r="S2">
-        <f>SLOPE(O2:O5,Q2:Q5)</f>
         <v>-8645.2624020927742</v>
       </c>
       <c r="T2">
-        <f>100*ABS(S2-R2)/ABS(S2)</f>
         <v>4.2728956431938707</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="5">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="3">
         <v>8.0500000000000007</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="5">
         <v>281.2</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>62.32</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>6.2320000000000002</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="5">
         <v>6232000</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="5">
         <v>281.74894956596677</v>
       </c>
-      <c r="I3" s="8">
-        <f t="shared" si="0"/>
+      <c r="I3" s="6">
         <v>-5.7990945379060577E-11</v>
       </c>
-      <c r="J3" s="8">
-        <f t="shared" si="1"/>
+      <c r="J3" s="6">
         <v>0.54894956596677957</v>
       </c>
       <c r="K3">
-        <f t="shared" si="2"/>
         <v>6.9287489236122235E-6</v>
       </c>
-      <c r="O3" s="9">
-        <f t="shared" si="5"/>
+      <c r="O3" s="7">
         <v>1.8296973085684471</v>
       </c>
-      <c r="P3" s="9">
-        <f t="shared" si="6"/>
+      <c r="P3" s="7">
         <v>3.5561877667140826E-3</v>
       </c>
-      <c r="Q3" s="9">
-        <f t="shared" si="7"/>
+      <c r="Q3" s="7">
         <v>3.5492590177904704E-3</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="5">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="3">
         <v>12.19</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <v>285.33999999999997</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>100</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>10</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="5">
         <v>10000000</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="5">
         <v>285.99885457943827</v>
       </c>
-      <c r="I4" s="8">
-        <f t="shared" si="0"/>
+      <c r="I4" s="6">
         <v>1.0470557754160836E-10</v>
       </c>
-      <c r="J4" s="8">
-        <f t="shared" si="1"/>
+      <c r="J4" s="6">
         <v>0.65885457943829806</v>
       </c>
       <c r="K4">
-        <f t="shared" si="2"/>
         <v>8.0735142879444745E-6</v>
       </c>
-      <c r="O4" s="9">
-        <f t="shared" si="5"/>
+      <c r="O4" s="7">
         <v>2.3025850929940459</v>
       </c>
-      <c r="P4" s="9">
-        <f t="shared" si="6"/>
+      <c r="P4" s="7">
         <v>3.50459101422864E-3</v>
       </c>
-      <c r="Q4" s="9">
-        <f t="shared" si="7"/>
+      <c r="Q4" s="7">
         <v>3.4965174999406954E-3</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="5">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="3">
         <v>13.25</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="5">
         <v>286.39999999999998</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>113.94</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>11.394</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="5">
         <v>11394000</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="5">
         <v>287.1133676649942</v>
       </c>
-      <c r="I5" s="8">
-        <f t="shared" si="0"/>
+      <c r="I5" s="6">
         <v>1.1951328815484885E-11</v>
       </c>
-      <c r="J5" s="8">
-        <f t="shared" si="1"/>
+      <c r="J5" s="6">
         <v>0.71336766499422311</v>
       </c>
       <c r="K5">
-        <f t="shared" si="2"/>
         <v>8.6753497630918607E-6</v>
       </c>
-      <c r="O5" s="9">
-        <f t="shared" si="5"/>
+      <c r="O5" s="7">
         <v>2.4330869010582039</v>
       </c>
-      <c r="P5" s="9">
-        <f t="shared" si="6"/>
+      <c r="P5" s="7">
         <v>3.4916201117318438E-3</v>
       </c>
-      <c r="Q5" s="9">
-        <f t="shared" si="7"/>
+      <c r="Q5" s="7">
         <v>3.482944761968752E-3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>